--- a/data/xlsx_edit/physrost09.xlsx
+++ b/data/xlsx_edit/physrost09.xlsx
@@ -1813,10 +1813,10 @@
     <t xml:space="preserve">Eastern Oregon U</t>
   </si>
   <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lewis &amp; Clark Coll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
   </si>
   <si>
     <t xml:space="preserve">Linfield Coll</t>
@@ -2789,14 +2789,14 @@
   </sheetPr>
   <dimension ref="A1:O762"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A527" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B547" activeCellId="0" sqref="B547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18637,7 +18637,7 @@
         <v>596</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>23</v>
@@ -18660,10 +18660,10 @@
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B547" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="B547" s="1" t="s">
-        <v>598</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>23</v>
@@ -18689,7 +18689,7 @@
         <v>599</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C548" s="1" t="s">
         <v>23</v>
@@ -18715,7 +18715,7 @@
         <v>600</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>17</v>
@@ -18756,7 +18756,7 @@
         <v>601</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C550" s="1" t="s">
         <v>17</v>
@@ -18797,7 +18797,7 @@
         <v>602</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C551" s="1" t="s">
         <v>23</v>
@@ -18823,7 +18823,7 @@
         <v>603</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>17</v>
@@ -18864,7 +18864,7 @@
         <v>604</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>23</v>
@@ -18890,7 +18890,7 @@
         <v>605</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>23</v>
@@ -18913,7 +18913,7 @@
         <v>606</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>23</v>
@@ -18939,7 +18939,7 @@
         <v>607</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>23</v>
